--- a/files/VarCovid.xlsx
+++ b/files/VarCovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7A805-1A00-AA4F-BF77-1CF802859EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34DC27-1209-024E-82C5-784D022FBE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>2020SM53</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Cualitativa nominal</t>
   </si>
   <si>
-    <t>Experimental</t>
-  </si>
-  <si>
     <t>Cuantitativa continua</t>
   </si>
   <si>
@@ -213,112 +210,7 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>Empresas</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
-  </si>
-  <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>ECV</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa discreta</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa continua</t>
-  </si>
-  <si>
-    <t>Variable cualitativa</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
-  </si>
-  <si>
-    <t>VarCovid</t>
   </si>
   <si>
     <r>
@@ -488,12 +380,171 @@
       <t>5.Ver métodos Elbrow y Silhouette si hay otro número óptimo de clusters y en ese caso repetir el estudio.</t>
     </r>
   </si>
+  <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -565,8 +616,31 @@
       <color theme="0"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,54 +649,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -806,21 +892,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,7 +901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -877,24 +948,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -910,8 +966,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -939,6 +1035,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1262,177 +1376,177 @@
   <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G23"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="13" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1460,422 +1574,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <v>26.02</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="16">
         <v>19.98</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="20">
         <v>76.975363748844927</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="20">
         <v>18.564191335281414</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="20">
         <v>25.327608112995819</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16">
         <v>4.49</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>12.76</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="20">
         <v>16.674314031384785</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="20">
         <v>21.894934333958723</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="20">
         <v>27.770141679001902</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="16">
         <v>22.26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>23.98</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="20">
         <v>57.469077069457661</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="20">
         <v>41.535776614310642</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="20">
         <v>21.928327645051194</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>9.84</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>14.74</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="20">
         <v>25.629173086800204</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="20">
         <v>22.050771528123445</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="20">
         <v>20.941039790880048</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>1.88</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="16">
         <v>9.06</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="20">
         <v>16.5728077232502</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="20">
         <v>15.243648479800084</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="20">
         <v>23.07314678448699</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>5.83</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="20">
         <v>8.4420880913539964</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="20">
         <v>9.6917229729729737</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="20">
         <v>6.2352385451110059</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>8.18</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>8.93</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="20">
         <v>31.25</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="20">
         <v>10.143329658213892</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="20">
         <v>0.90732339598185352</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16">
         <v>34.49</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>27.53</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="20">
         <v>105.81711181530105</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="20">
         <v>27.756521739130434</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="20">
         <v>20.0946943322657</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>58.79</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>34.18</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="20">
         <v>182.90155440414509</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="20">
         <v>18.612757058208434</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="20">
         <v>26.956877171469447</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="16">
         <v>41.34</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>25.49</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="20">
         <v>122.24164524421595</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="20">
         <v>16.831936209364137</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="20">
         <v>30.177550772224247</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>7.18</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>12.4</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="20">
         <v>26.255910165484636</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="20">
         <v>13.31600445599703</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="20">
         <v>49.689820882481435</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>14.89</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>17.559999999999999</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="20">
         <v>42.128359846407022</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="20">
         <v>21.242424242424242</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="20">
         <v>27.204630575417095</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>5.56</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>6.77</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="20">
         <v>10.79896393703925</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="20">
         <v>6.7442339373970341</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="20">
         <v>9.9582587954680974</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>82.48</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>42.98</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="20">
         <v>239.05525094896669</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="20">
         <v>20.822403403048565</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="20">
         <v>24.285835381876748</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="16">
         <v>-0.75</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="16">
         <v>7.59</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="20">
         <v>8.592425098925947</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="20">
         <v>16.681197326358614</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="20">
         <v>33.277647844971604</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>35.69</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>21.73</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="20">
         <v>93.069306930693074</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="20">
         <v>20.994794679005206</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="20">
         <v>5.0237610319076715</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="A18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="16">
         <v>16.55</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="16">
         <v>14.04</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="20">
         <v>51.304611650485434</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="20">
         <v>14.964972425100612</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="20">
         <v>12.144420131291028</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>24.83</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="16">
         <v>19.559999999999999</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="20">
         <v>66.011787819253442</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="20">
         <v>27.80806979280262</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="20">
         <v>17.816813048933501</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>23.5</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="16">
         <v>22.72</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="20">
         <v>33.333333333333329</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="20">
         <v>26.589595375722542</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="20">
         <v>8.6705202312138727</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>20.83</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="16">
         <v>24.85</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="20">
         <v>26.923076923076923</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="20">
         <v>42.405063291139236</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="20">
         <v>8.9552238805970141</v>
       </c>
     </row>
@@ -1889,7 +2003,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1923,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>25</v>
@@ -1935,7 +2049,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -1965,29 +2079,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="11">
         <v>35177</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -1995,29 +2109,29 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="11">
         <v>35177</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="80" x14ac:dyDescent="0.2">
@@ -2025,29 +2139,29 @@
         <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="11">
         <v>35177</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="80" x14ac:dyDescent="0.2">
@@ -2055,29 +2169,29 @@
         <v>18</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="11">
         <v>35177</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="81" thickBot="1" x14ac:dyDescent="0.25">
@@ -2085,29 +2199,29 @@
         <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="13">
         <v>35177</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2115,6 +2229,11 @@
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{67A92711-88D1-432F-813E-12C0106FE909}"/>
     <hyperlink ref="J7" r:id="rId2" xr:uid="{A675376E-9477-FB4D-A165-0F8B01CA6E2F}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{D67B984E-E690-BC4C-97C9-3874D9F630EC}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{9EF80474-9EFE-D840-829A-BC52D380DC2F}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{E40B99D6-D77E-0443-8D19-AD3C93414F38}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{BAB5DBD3-909B-FE4B-805F-9F05844CB0BE}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{9D9E42FE-B812-FF4B-A10C-FF9957BA7000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2122,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B9DB-7513-F043-87A2-E27A9A331F7D}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2134,367 +2253,598 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+      <c r="B3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="B5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+      <c r="B8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+      <c r="B10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="C35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+      <c r="B40" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="19">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="48"/>
+      <c r="B46" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="49"/>
+      <c r="B48" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="49"/>
+      <c r="B49" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="49"/>
+      <c r="B50" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="49"/>
+      <c r="B51" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="49"/>
+      <c r="B52" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
+      <c r="B53" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="49"/>
+      <c r="B54" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="19">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="49"/>
+      <c r="B55" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="19">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="49"/>
+      <c r="B56" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="49"/>
+      <c r="B57" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="49"/>
+      <c r="B58" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="8">
-        <v>0</v>
-      </c>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="31"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>